--- a/examples/datasheet/GlobalDefine.xlsx
+++ b/examples/datasheet/GlobalDefine.xlsx
@@ -134,7 +134,7 @@
     <t>&lt;string,int&gt;</t>
   </si>
   <si>
-    <t>Food=100|Power=200|Diamond=10</t>
+    <t>Food:100|Power:200|Diamond:10</t>
   </si>
   <si>
     <t>首充奖励</t>
@@ -146,7 +146,7 @@
     <t>&lt;int,int&gt;</t>
   </si>
   <si>
-    <t>1001=100|1002=100|1003=200</t>
+    <t>1:100|2:100|3:200</t>
   </si>
   <si>
     <t>VIP奖励</t>
@@ -1149,7 +1149,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22" customHeight="1" outlineLevelCol="5"/>
